--- a/USHPRR/UMo_defects_pressure_1000_400.xlsx
+++ b/USHPRR/UMo_defects_pressure_1000_400.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminbeeler/projects/spreadsheets/USHPRR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beelbw/projects/spreadsheets/USHPRR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8127114C-ED0C-5842-9B6B-B78FE1C0D018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A06CB4-A824-AF41-8AC1-A98D8D692071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1100" yWindow="1060" windowWidth="34920" windowHeight="17560" firstSheet="4" activeTab="17" xr2:uid="{CF7A273F-A15D-064C-84B5-4D14A9807DE6}"/>
+    <workbookView xWindow="1100" yWindow="1060" windowWidth="34920" windowHeight="17560" xr2:uid="{CF7A273F-A15D-064C-84B5-4D14A9807DE6}"/>
   </bookViews>
   <sheets>
     <sheet name="bccU" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,6 @@
     <sheet name="summary_400" sheetId="25" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -11300,7 +11299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1073CA55-B1C7-114B-B7E4-9FC7986A14AD}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
@@ -20398,7 +20397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9C66B7-8869-7F41-AC95-5C313C7AED1D}">
   <dimension ref="B3:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -21049,7 +21048,7 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <f t="shared" ref="L23:M23" si="4">L5/L$5</f>
+        <f t="shared" ref="L23" si="4">L5/L$5</f>
         <v>1</v>
       </c>
       <c r="M23">
@@ -21099,7 +21098,7 @@
         <v>1.0339669963852787</v>
       </c>
       <c r="L24">
-        <f t="shared" ref="L24:M24" si="6">L6/L$5</f>
+        <f t="shared" ref="L24" si="6">L6/L$5</f>
         <v>1.0246823331962391</v>
       </c>
       <c r="M24">
@@ -21234,7 +21233,7 @@
         <v>0.92096477259340492</v>
       </c>
       <c r="L27">
-        <f t="shared" ref="L27:M27" si="12">L9/L$5</f>
+        <f t="shared" ref="L27" si="12">L9/L$5</f>
         <v>0.94647105922468011</v>
       </c>
       <c r="M27">
